--- a/dataset/all - Copy.xlsx
+++ b/dataset/all - Copy.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>packin</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>packout</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -543,22 +538,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/05/2021 01:39:46</t>
+          <t>05/06/2021 02:53:58</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.1639</v>
       </c>
       <c r="C2" t="n">
-        <v>15.666</v>
+        <v>13.676</v>
       </c>
       <c r="D2" t="n">
-        <v>13.99</v>
+        <v>12.66</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
@@ -634,22 +626,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05/05/2021 01:40:48</t>
+          <t>05/06/2021 02:54:59</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0.3333</v>
       </c>
       <c r="C3" t="n">
-        <v>14.31</v>
+        <v>13.892</v>
       </c>
       <c r="D3" t="n">
-        <v>12.964</v>
+        <v>12.888</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
@@ -710,22 +699,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/05/2021 01:41:50</t>
+          <t>05/06/2021 02:56:01</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0.3333</v>
       </c>
       <c r="C4" t="n">
-        <v>15.114</v>
+        <v>13.612</v>
       </c>
       <c r="D4" t="n">
-        <v>13.814</v>
+        <v>12.688</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
@@ -801,26 +787,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05/05/2021 01:42:55</t>
+          <t>05/06/2021 02:57:06</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3390000000000001</v>
+        <v>0.1667</v>
       </c>
       <c r="C5" t="n">
-        <v>15.114</v>
+        <v>15.116</v>
       </c>
       <c r="D5" t="n">
-        <v>13.814</v>
+        <v>13.574</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>99.80141284210697</v>
+        <v>99.54260336151914</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -829,44 +812,44 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.38886666607421916</t>
+          <t>0.27683333270815663</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.38886666607421916</t>
+          <t>0.27683333270815663</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.38886666607421916</t>
+          <t>0.27683333270815663</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>99.94772632512988</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>(1, 0, 0)</t>
+          <t>(0, 0, 0)</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.726666666233962</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.726666666233962</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.726666666233962</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>99.97967038254413</v>
+        <v>99.96608693001802</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -875,43 +858,40 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>13.589333332583431</t>
+          <t>12.74533333280602</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>13.589333332583431</t>
+          <t>12.74533333280602</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>13.589333332583431</t>
+          <t>12.74533333280602</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05/05/2021 01:44:00</t>
+          <t>05/06/2021 02:58:09</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3279</v>
+        <v>0.3333</v>
       </c>
       <c r="C6" t="n">
-        <v>14.95</v>
+        <v>13.892</v>
       </c>
       <c r="D6" t="n">
-        <v>13.862</v>
+        <v>12.888</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>99.85249487186034</v>
+        <v>99.5436534663589</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -920,44 +900,44 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.3763999993002544</t>
+          <t>0.2492999993048897</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.3763999993002544</t>
+          <t>0.2492999993048897</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.3763999993002544</t>
+          <t>0.2492999993048897</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>99.980637029574</v>
+        <v>99.94749374709684</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>(1, 0, 0)</t>
+          <t>(0, 0, 0)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>14.835321139022042</t>
+          <t>14.074</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15.05023569880391</t>
+          <t>14.074</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>14.88449557827899</t>
+          <t>14.074</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>99.9840590343162</v>
+        <v>99.96697363136228</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -966,89 +946,86 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13.645499992105938</t>
+          <t>12.952499995171511</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>13.645499992105938</t>
+          <t>12.952499995171511</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>13.645499992105938</t>
+          <t>12.952499995171511</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05/05/2021 01:45:04</t>
+          <t>05/06/2021 02:59:13</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.5593</v>
+        <v>0.1695</v>
       </c>
       <c r="C7" t="n">
-        <v>14.798</v>
+        <v>13.568</v>
       </c>
       <c r="D7" t="n">
-        <v>54.964</v>
+        <v>12.632</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>99.57113605087845</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(1, 0, 1)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.36669999943701725</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.36669999943701725</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.36669999943701725</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>99.98278706171043</v>
+        <v>99.95345888175811</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>(1, 0, 0)</t>
+          <t>(0, 0, 0)</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>14.989084709699082</t>
+          <t>14.037599998137814</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>14.958670680259566</t>
+          <t>14.037599998137814</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>14.9823375616019</t>
+          <t>14.037599998137814</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>99.73905611868396</v>
+        <v>99.96986546932153</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1057,66 +1034,63 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13.688799997723356</t>
+          <t>12.939599997327798</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>13.688799997723356</t>
+          <t>12.939599997327798</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>13.688799997723356</t>
+          <t>12.939599997327798</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>05/05/2021 01:46:09</t>
+          <t>05/06/2021 03:00:17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.66670000000001</v>
+        <v>0.3279</v>
       </c>
       <c r="C8" t="n">
-        <v>18.395</v>
+        <v>13.702</v>
       </c>
       <c r="D8" t="n">
-        <v>66.68300000000001</v>
+        <v>12.764</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>98.92424619044719</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>(2, 0, 0)</t>
+          <t>(0, 0, 2)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-75.26268082991756</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>119.14796193686945</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-150.84889400937357</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>99.93083878968133</v>
+        <v>99.97783579083399</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1125,64 +1099,61 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>14.991999999533457</t>
+          <t>13.959333332503691</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14.991999999533457</t>
+          <t>13.959333332503691</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>14.991999999533457</t>
+          <t>13.959333332503691</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>99.48338580856245</v>
+        <v>99.98696785073304</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>(1, 0, 0)</t>
+          <t>(0, 0, 0)</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>15.49793529195583</t>
+          <t>12.888333331637527</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>20.600294619451212</t>
+          <t>12.888333331637527</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>19.9406374963134</t>
+          <t>12.888333331637527</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05/05/2021 01:51:31</t>
+          <t>05/06/2021 03:01:22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.01690000000001</v>
+        <v>0.3390000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>38.542</v>
+        <v>13.48</v>
       </c>
       <c r="D9" t="n">
-        <v>133.993</v>
+        <v>12.588</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -1207,7 +1178,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>99.73362126871584</v>
+        <v>99.97125890988636</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1216,89 +1187,86 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>15.478142850915033</t>
+          <t>13.922571426593247</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>15.478142850915033</t>
+          <t>13.922571426593247</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>15.478142850915033</t>
+          <t>13.922571426593247</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>99.30147198489153</v>
+        <v>99.98115350827491</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>(1, 0, 0)</t>
+          <t>(0, 0, 0)</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>56.96606347134888</t>
+          <t>12.870571427224409</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>50.023519098738774</t>
+          <t>12.870571427224409</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>45.06321888235451</t>
+          <t>12.870571427224409</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05/05/2021 01:52:37</t>
+          <t>05/06/2021 03:02:25</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.83335</v>
+        <v>43.4426</v>
       </c>
       <c r="C10" t="n">
-        <v>19.865</v>
+        <v>16.49</v>
       </c>
       <c r="D10" t="n">
-        <v>79.185</v>
+        <v>72.015</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>98.90312268056391</v>
+        <v>99.49226044677474</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>(2, 0, 0)</t>
+          <t>(0, 0, 0)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.8512509181298142</t>
+          <t>0.2708624999999998</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-38.022290376879546</t>
+          <t>0.2708624999999998</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-34.75641770302582</t>
+          <t>0.2708624999999998</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>99.78128976225925</v>
+        <v>99.93868144739913</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1307,362 +1275,350 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>18.361124999999998</t>
+          <t>13.867249998368331</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18.361124999999998</t>
+          <t>13.867249998368331</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>18.361124999999998</t>
+          <t>13.867249998368331</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>99.34644594254387</v>
+        <v>99.78042268865397</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>(1, 0, 0)</t>
+          <t>(0, 0, 0)</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>120.25288952956124</t>
+          <t>12.835249998407166</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>109.00558024811326</t>
+          <t>12.835249998407166</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>99.79881540115592</t>
+          <t>12.835249998407166</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05/05/2021 01:53:43</t>
+          <t>05/06/2021 03:03:28</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.9863</v>
+        <v>44.91530000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>37.938</v>
+        <v>16.778</v>
       </c>
       <c r="D11" t="n">
-        <v>189.745</v>
+        <v>69.574</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>99.48417809016419</v>
+        <v>99.41678001709397</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>(1, 0, 0)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.070668958774065</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>5.087167402427419</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>4.7064375335863256</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>99.8734154026839</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>(0, 0, 1)</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>22.39119064521762</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>20.932291120618842</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>20.932291120618842</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>99.65731813327325</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>18.52822222222222</t>
+          <t>12.563733307840792</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18.52822222222222</t>
+          <t>14.053066661693007</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>18.52822222222222</t>
+          <t>14.053066661693007</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>99.43278741110642</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>(5,1,0)</t>
+          <t>(0, 0, 1)</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-26.68876322354924</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.09288989895693</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.09288989895693</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05/05/2021 01:54:50</t>
+          <t>05/06/2021 03:04:35</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.13115</v>
+        <v>0.1639</v>
       </c>
       <c r="C12" t="n">
-        <v>19.284</v>
+        <v>13.834</v>
       </c>
       <c r="D12" t="n">
-        <v>66.16</v>
+        <v>12.764</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>99.46142462140354</v>
+        <v>85.91440686889328</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>9.05248</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>9.05248</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>9.05248</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>99.9023993596183</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>(0, 0, 0)</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>14.420599999568553</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>14.420599999568553</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>14.420599999568553</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>99.25625526061975</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>(0, 0, 1)</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>52.975924520416385</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>26.375624039607317</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>26.375624039607317</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>99.68820204449321</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>20.4692</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>20.4692</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>20.4692</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>(5,1,0)</t>
-        </is>
-      </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.072977833859976</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24.213755531073765</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24.213755531073765</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>05/05/2021 02:00:08</t>
+          <t>05/06/2021 03:05:39</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.66670000000001</v>
+        <v>0.3333</v>
       </c>
       <c r="C13" t="n">
-        <v>18.601</v>
+        <v>13.844</v>
       </c>
       <c r="D13" t="n">
-        <v>65.178</v>
+        <v>12.636</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>99.43157172600459</v>
+        <v>83.98437441637039</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>(1, 0, 0)</t>
+          <t>(0, 0, 0)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>22.17014791096265</t>
+          <t>8.244427272727272</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>22.19348308203964</t>
+          <t>8.244427272727272</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22.207446143028065</t>
+          <t>8.244427272727272</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>99.73163303449296</v>
+        <v>99.88204800521729</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(0, 0, 1)</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>20.36145454545454</t>
+          <t>13.291126629083974</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>20.36145454545454</t>
+          <t>14.200999941790922</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>20.36145454545454</t>
+          <t>14.200999941790922</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>99.38357026857393</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>(5,1,0)</t>
+          <t>(0, 0, 1)</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13.990196324263623</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.62983092909456</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.62983092909456</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05/05/2021 02:01:17</t>
+          <t>05/06/2021 03:08:47</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.16670000000001</v>
+        <v>58.6441</v>
       </c>
       <c r="C14" t="n">
-        <v>18.398</v>
+        <v>17.571</v>
       </c>
       <c r="D14" t="n">
-        <v>111.654</v>
+        <v>66.667</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>99.23526399894631</v>
+        <v>85.59613746371814</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>(0, 1, 0)</t>
+          <t>(0, 0, 1)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>74.86367272727273</t>
+          <t>8.848161126071052</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>81.06064545454545</t>
+          <t>7.645805617010191</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>87.25761818181817</t>
+          <t>7.645805617010191</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>99.83156528830138</v>
+        <v>99.88396385038413</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1671,1496 +1627,568 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>20.214750000000006</t>
+          <t>14.32366666666667</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20.214750000000006</t>
+          <t>14.32366666666667</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>20.214750000000006</t>
+          <t>14.32366666666667</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>99.25297417604057</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>(5,1,0)</t>
+          <t>(0, 0, 1)</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20.40752493506434</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.333549743214</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.333549743214</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05/05/2021 02:06:33</t>
+          <t>05/06/2021 03:09:51</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.25</v>
+        <v>70.83329999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>105687.46</v>
+        <v>19.424</v>
       </c>
       <c r="D15" t="n">
-        <v>622.159</v>
+        <v>120.568</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>99.21487133363145</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>(0, 0, 1)</t>
+          <t>(5,1,0)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>48.169205039469375</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>33.52239884362161</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>33.52239884362161</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>99.64674422909327</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(5,1,0)</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>20.07500000000001</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20.07500000000001</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>20.07500000000001</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>99.2039988885825</v>
+        <v>0</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>(0, 1, 0)</t>
+          <t>(5,1,0)</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>119.79266666666666</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>127.93133333333333</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>136.07</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05/05/2021 02:07:38</t>
+          <t>05/06/2021 03:15:11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3333</v>
+        <v>42.04945</v>
       </c>
       <c r="C16" t="n">
-        <v>28.264</v>
+        <v>34.216</v>
       </c>
       <c r="D16" t="n">
-        <v>25.656</v>
+        <v>120.27</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>88.9141893443399</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>(0, 0, 1)</t>
+          <t>(5,1,0)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21.19428722668588</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>31.499901531381585</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>31.499901531381585</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>55.24693684140368</v>
+        <v>99.78451033478017</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(1, 0, 0)</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>7567.745357142859</t>
+          <t>17.597498900570525</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>7567.745357142859</t>
+          <t>16.556926562195073</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>7567.745357142859</t>
+          <t>15.964104147946117</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>99.10603483302719</v>
+        <v>98.42254361517985</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(0, 1, 1)</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>104.15464285714287</t>
+          <t>143.19284527981392</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>104.15464285714287</t>
+          <t>152.12273632494663</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>104.15464285714287</t>
+          <t>161.05262737007934</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>05/05/2021 02:12:49</t>
+          <t>05/06/2021 03:16:20</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5</v>
+        <v>51.0175</v>
       </c>
       <c r="C17" t="n">
-        <v>14.396</v>
+        <v>34.436</v>
       </c>
       <c r="D17" t="n">
-        <v>12.944</v>
+        <v>120.035</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>83.67006492217467</v>
+        <v>49.01411919398112</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>(0, 0, 1)</t>
+          <t>(0, 1, 0)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>16.528766271251236</t>
+          <t>45.041275</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>29.321542899822397</t>
+          <t>48.0331</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>29.321542899822397</t>
+          <t>51.024924999999996</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>-26.29599184932783</v>
+        <v>99.80841558804191</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(1, 0, 0)</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>7065.113266666667</t>
+          <t>31.61861263658269</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>7065.113266666667</t>
+          <t>29.471015274270854</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>7065.113266666667</t>
+          <t>27.69531770387048</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>98.12630054635223</v>
+        <v>98.49418021674518</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(0, 1, 1)</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>98.9214</t>
+          <t>111.01883575266122</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>98.9214</t>
+          <t>117.23516809047993</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>98.9214</t>
+          <t>123.45150042829864</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05/05/2021 02:13:53</t>
+          <t>05/06/2021 03:17:25</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3390000000000001</v>
+        <v>49.62295</v>
       </c>
       <c r="C18" t="n">
-        <v>14.638</v>
+        <v>37.837</v>
       </c>
       <c r="D18" t="n">
-        <v>13.124</v>
+        <v>141.136</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>75.2769301046702</v>
+        <v>99.56117437023137</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>(0, 0, 1)</t>
+          <t>(0, 1, 0)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>17.883109568016465</t>
+          <t>54.40774</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>27.70957689146774</t>
+          <t>57.797979999999995</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>27.70957689146774</t>
+          <t>61.188219999999994</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>-101.5442700971687</v>
+        <v>99.86678976044583</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(0, 1, 0)</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>6624.443437500003</t>
+          <t>35.82</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>6624.443437500003</t>
+          <t>37.204</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>6624.443437500003</t>
+          <t>38.588</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>97.12224577999841</v>
+        <v>99.3098773686082</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(0, 1, 1)</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>93.54781250000003</t>
+          <t>133.45377947874238</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>93.54781250000003</t>
+          <t>140.66439116899372</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>93.54781250000003</t>
+          <t>147.87500285924506</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>05/05/2021 02:14:57</t>
+          <t>05/06/2021 03:18:30</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3390000000000001</v>
+        <v>50.66530000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>16.392</v>
+        <v>35.561</v>
       </c>
       <c r="D19" t="n">
-        <v>15.232</v>
+        <v>166.946</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>72.69551319086213</v>
+        <v>99.61808678381315</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>(0, 0, 1)</t>
+          <t>(0, 1, 0)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>14.845823030983341</t>
+          <t>52.714140625000006</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>26.058784621612617</t>
+          <t>55.80533125000001</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>26.058784621612617</t>
+          <t>58.89652187500001</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>-126.9532298467712</v>
+        <v>99.87061026536809</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(0, 1, 0)</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>6235.631352941178</t>
+          <t>39.34706250000001</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>6235.631352941178</t>
+          <t>40.85712500000001</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>6235.631352941178</t>
+          <t>42.367187500000014</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>96.84321809654125</v>
+        <v>99.3977286245503</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(0, 1, 1)</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>88.81700000000002</t>
+          <t>154.39769760123508</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>88.81700000000002</t>
+          <t>162.36400814723248</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>88.81700000000002</t>
+          <t>170.33031869322988</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05/05/2021 02:16:00</t>
+          <t>05/06/2021 03:19:36</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3333</v>
+        <v>20.6751</v>
       </c>
       <c r="C20" t="n">
-        <v>14.32</v>
+        <v>28.251</v>
       </c>
       <c r="D20" t="n">
-        <v>12.916</v>
+        <v>73.63</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>66.344829023523</v>
+        <v>99.46294686081004</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>(0, 0, 1)</t>
+          <t>(0, 1, 0)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15.450692188801574</t>
+          <t>53.6359705882353</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>24.744319551163485</t>
+          <t>56.606641176470596</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>24.744319551163485</t>
+          <t>59.57731176470589</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>-185.5570084552775</v>
+        <v>99.82719578663894</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(0, 1, 0)</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>5890.118055555555</t>
+          <t>36.84835294117647</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5890.118055555555</t>
+          <t>38.135705882352944</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>5890.118055555555</t>
+          <t>39.423058823529416</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>96.06044627916</v>
+        <v>99.57805325064565</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>(0, 0, 0)</t>
+          <t>(0, 1, 0)</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>84.72894444444441</t>
+          <t>176.02164695889138</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>84.72894444444441</t>
+          <t>185.09729391778276</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>84.72894444444441</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:17:04</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="C21" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="D21" t="n">
-        <v>12.864</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>60.76242200745884</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>(0, 0, 1)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>13.505878030510178</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>23.451845688336522</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>23.451845688336522</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>-241.9838986830596</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>5580.865530459328</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>5580.865530459328</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>5580.865530459328</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
-        <v>95.3699713783754</v>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>80.94931578947373</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>80.94931578947373</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>80.94931578947373</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:18:07</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.4918</v>
-      </c>
-      <c r="C22" t="n">
-        <v>16.332</v>
-      </c>
-      <c r="D22" t="n">
-        <v>15.361</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62.31778110715422</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>(0, 0, 1)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>13.669436014890254</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>22.366704900744857</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>22.366704900744857</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>-239.694786179296</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>5302.526749999999</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>5302.526749999999</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>5302.526749999999</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>95.44270280582784</v>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>77.54504999999997</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>77.54504999999997</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>77.54504999999997</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:19:12</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.3390000000000001</v>
-      </c>
-      <c r="C23" t="n">
-        <v>15.668</v>
-      </c>
-      <c r="D23" t="n">
-        <v>13.726</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>57.91502480044706</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>(0, 0, 1)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>12.480088674314782</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>21.335427016127298</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>21.335427016127298</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>-279.7403421417946</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>5050.803190476188</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>5050.803190476188</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>5050.803190476188</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>95.00056139684797</v>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>74.58390476190473</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>74.58390476190473</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>74.58390476190473</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:20:16</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>30.50850000000001</v>
-      </c>
-      <c r="C24" t="n">
-        <v>12.683</v>
-      </c>
-      <c r="D24" t="n">
-        <v>9.776</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>65.66377025002483</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>(0, 0, 1)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>12.226067647835604</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>20.419152925859365</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>20.419152925859365</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>-293.7949183812499</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>4821.93340909091</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>4821.93340909091</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>4821.93340909091</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
-        <v>94.58972877158482</v>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>71.81763636363635</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>71.81763636363635</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>71.81763636363635</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:21:21</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C25" t="n">
-        <v>19.073</v>
-      </c>
-      <c r="D25" t="n">
-        <v>63.891</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>69.46635556799299</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>(0, 0, 1)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>34.15096730192247</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>21.73306593655211</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>21.73306593655211</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>-276.8012163296692</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>4612.8355652173905</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>4612.8355652173905</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>4612.8355652173905</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
-        <v>95.18177610418014</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>69.12017391304347</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>69.12017391304347</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>69.12017391304347</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:21:31</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>19.073</v>
-      </c>
-      <c r="D26" t="n">
-        <v>63.891</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>72.98919116905763</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>(0, 0, 1)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>24.94753288255315</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>22.02554236907236</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>22.02554236907236</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>-248.0286525598096</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>4421.428791666668</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>4421.428791666668</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>4421.428791666668</t>
-        </is>
-      </c>
-      <c r="S26" t="n">
-        <v>95.91108987974042</v>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>68.90228941187308</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>68.90228941187308</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>68.90228941187308</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:21:40</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>19.073</v>
-      </c>
-      <c r="D27" t="n">
-        <v>63.891</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>78.72106510954731</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>(0, 0, 1)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>32.12169982323222</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>22.926578832228664</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>22.926578832228664</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>-222.4766905774392</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>4245.334560000001</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>4245.334560000001</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>4245.334560000001</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
-        <v>96.58361186308137</v>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>68.70184</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>68.70184</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>68.70184</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:21:48</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>19.073</v>
-      </c>
-      <c r="D28" t="n">
-        <v>63.891</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>80.82073339848111</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>(0, 0, 1)</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>27.633297957081528</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>23.3245633482581</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>23.3245633482581</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>-211.5351245892781</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>4082.7860384615374</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>4082.7860384615374</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>4082.7860384615374</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
-        <v>96.91801052136432</v>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>68.51680769230765</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>68.51680769230765</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>68.51680769230765</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:21:58</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>59.3443</v>
-      </c>
-      <c r="C29" t="n">
-        <v>20.152</v>
-      </c>
-      <c r="D29" t="n">
-        <v>113.958</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>85.05298826091415</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>(0, 0, 1)</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>31.42638723073942</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>23.995479630906196</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>23.995479630906196</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>-193.0075170021011</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>3932.2781481481484</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>3932.2781481481484</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>3932.2781481481484</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
-        <v>97.36107959430724</v>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>68.34548148148149</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>68.34548148148149</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>68.34548148148149</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>05/05/2021 02:22:08</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>59.3443</v>
-      </c>
-      <c r="C30" t="n">
-        <v>20.152</v>
-      </c>
-      <c r="D30" t="n">
-        <v>113.958</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>92.03350087289022</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>(1, 0, 1)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>51.49631064634037</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>34.86104600076293</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>29.07169617749027</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>-170.6951742354552</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>3792.559357142857</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>3792.559357142857</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>3792.559357142857</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
-        <v>97.87848323666073</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>(0, 0, 0)</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>69.97449999999999</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>69.97449999999999</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>69.97449999999999</t>
+          <t>194.17294087667415</t>
         </is>
       </c>
     </row>
